--- a/data/support_data/support_data.xlsx
+++ b/data/support_data/support_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ticdcy\Learning\graduation paper\data\support_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Occupational-health-calculation\data\support_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FC4525-AF78-40FE-A669-813D3512D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD4415D-59F5-40DF-BC94-D73C2777A3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="short_term_weight" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>Type of injuries or illnesses from BLS</t>
   </si>
@@ -152,6 +152,58 @@
   </si>
   <si>
     <t>Median year away from work</t>
+  </si>
+  <si>
+    <t>Sprains, strains, tears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fractures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puncture wounds, except gunshot wounds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bruises, contusions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat burns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chemical burns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amputations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carpal tunnel syndrome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tendonitis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple traumatic injuries and disorders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soreness, pain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unspecified nonfatal injuries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuts, lacerations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -246,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,13 +318,10 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -294,10 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,13 +632,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.9296875" customWidth="1"/>
-    <col min="2" max="2" width="48.3984375" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -614,7 +660,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -625,7 +671,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -636,7 +682,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -647,7 +693,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -658,7 +704,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -669,7 +715,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,7 +726,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -691,7 +737,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -702,7 +748,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -713,7 +759,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -724,7 +770,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -735,7 +781,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -757,164 +803,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033FA719-7A40-47DE-B48E-60A5D9B54A26}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.73046875" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="43.75" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>6.7300000000000013E-2</v>
       </c>
       <c r="C3" s="5">
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.1799</v>
       </c>
       <c r="C7" s="5">
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.1799</v>
       </c>
       <c r="C8" s="5">
         <v>0.73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="C9" s="5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.113</v>
       </c>
       <c r="C10" s="5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.187</v>
       </c>
       <c r="C11" s="5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="C12" s="5">
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="C14" s="6">
@@ -932,18 +978,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772B141B-E2FB-46CC-98DA-0EF16E5325F5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -954,146 +1000,146 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9">
         <v>0.5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C10" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9">
         <v>0.4</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10">
+        <v>39</v>
+      </c>
+      <c r="B13" s="9">
         <v>0.2</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11">
         <v>0.25</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>0.75</v>
       </c>
     </row>
@@ -1111,27 +1157,27 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="4" width="11.46484375" customWidth="1"/>
+    <col min="3" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1144,12 +1190,12 @@
       <c r="D2" s="2">
         <v>49.6</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <f>AVERAGE(B2:C2)</f>
         <v>49.599999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1162,25 +1208,25 @@
       <c r="D3" s="2">
         <v>29</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:C3)</f>
         <v>28.95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>16.399999999999999</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>15.7</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>16.100000000000001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>16.049999999999997</v>
       </c>
@@ -1199,14 +1245,14 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1328125" customWidth="1"/>
-    <col min="3" max="3" width="32.59765625" customWidth="1"/>
+    <col min="1" max="1" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,159 +1263,159 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <f>C2*365/1.46</f>
         <v>9.5</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="16">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <f t="shared" ref="B3:B14" si="0">C3*365/1.46</f>
         <v>27.041666666666746</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="16">
         <v>0.10816666666666699</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="16">
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <f t="shared" si="0"/>
         <v>53.41666666666675</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="16">
         <v>0.213666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <f t="shared" si="0"/>
         <v>53.41666666666675</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>0.213666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <v>0.10400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <f t="shared" si="0"/>
         <v>27.999999999999996</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="16">
         <v>0.11199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <f t="shared" si="0"/>
         <v>13.999999999999998</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>5.5999999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <f t="shared" si="0"/>
         <v>8.375</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>6.9999999999999991</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>11.015284991738744</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="8">
         <v>4.4061139966954974E-2</v>
       </c>
     </row>
@@ -1385,7 +1431,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
